--- a/0c963a043f92e3c567b6afb48d406df5a2f38f5c/coronavirus.xlsx
+++ b/0c963a043f92e3c567b6afb48d406df5a2f38f5c/coronavirus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Alvacast\Curso\0c963a043f92e3c567b6afb48d406df5a2f38f5c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798814F5-CCC2-4E45-8546-FD1388C68C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1021BDE2-A406-43C9-AACC-7A55364385EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15972" xr2:uid="{9D5C85E2-BCAA-4DAB-88D3-E7938B7E5077}"/>
   </bookViews>
@@ -31,12 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>estado</t>
-  </si>
-  <si>
-    <t>infectados</t>
   </si>
   <si>
     <t>China</t>
@@ -112,13 +109,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -440,141 +434,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED3109C-3290-4CAB-8522-1F8BA477610B}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.33203125" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>251472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C3" s="3">
+        <v>1005795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
-        <v>251472</v>
-      </c>
-      <c r="D2" s="4">
-        <v>252200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4035947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>514349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1065968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
-        <v>1005795</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1008799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C7" s="3">
+        <v>534917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
-        <v>4035947</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4048754</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="C8" s="3">
+        <v>548554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
-        <v>514349</v>
-      </c>
-      <c r="D5" s="4">
-        <v>517229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1065968</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1068953</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>534917</v>
-      </c>
-      <c r="D7" s="4">
-        <v>536415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>548554</v>
-      </c>
-      <c r="D8" s="4">
-        <v>550192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1651446</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1706935</v>
       </c>
     </row>
   </sheetData>

--- a/0c963a043f92e3c567b6afb48d406df5a2f38f5c/coronavirus.xlsx
+++ b/0c963a043f92e3c567b6afb48d406df5a2f38f5c/coronavirus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Alvacast\Curso\0c963a043f92e3c567b6afb48d406df5a2f38f5c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1021BDE2-A406-43C9-AACC-7A55364385EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB682A15-BB3C-442D-9ACE-30F71F762AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15972" xr2:uid="{9D5C85E2-BCAA-4DAB-88D3-E7938B7E5077}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>estado</t>
   </si>
@@ -47,12 +47,15 @@
   <si>
     <t>monto_invertido_med</t>
   </si>
+  <si>
+    <t>infectados</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +76,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -82,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -105,11 +116,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -120,6 +142,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED3109C-3290-4CAB-8522-1F8BA477610B}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +472,7 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +482,11 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -467,8 +496,11 @@
       <c r="C2" s="3">
         <v>251472</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -478,8 +510,11 @@
       <c r="C3" s="3">
         <v>1005795</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -489,8 +524,11 @@
       <c r="C4" s="3">
         <v>4035947</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -500,8 +538,11 @@
       <c r="C5" s="3">
         <v>514349</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -511,8 +552,11 @@
       <c r="C6" s="3">
         <v>1065968</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -522,8 +566,11 @@
       <c r="C7" s="3">
         <v>534917</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -533,8 +580,11 @@
       <c r="C8" s="3">
         <v>548554</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -544,6 +594,12 @@
       <c r="C9" s="3">
         <v>1651446</v>
       </c>
+      <c r="D9">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
